--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value480.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value480.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9861612089999227</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.691124451805947</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.189839208973932</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.694668377064993</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.055376043625006</v>
+        <v>1.014533758163452</v>
       </c>
     </row>
   </sheetData>
